--- a/config_9.29/permission_server_config.xlsx
+++ b/config_9.29/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1767">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8111,6 +8111,27 @@
   </si>
   <si>
     <t>2020年10月5日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>国庆福袋（非C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS渠道）</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8859,7 +8880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A369" sqref="A369"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12975,13 +12996,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D325" sqref="D325"/>
+      <selection pane="bottomRight" activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22874,7 +22895,7 @@
       <c r="B291" s="78">
         <v>1</v>
       </c>
-      <c r="C291" s="78" t="s">
+      <c r="C291" s="79" t="s">
         <v>1684</v>
       </c>
       <c r="D291" s="78" t="s">
@@ -23719,7 +23740,7 @@
         <v>1763</v>
       </c>
       <c r="G317" s="26">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H317" s="17" t="b">
         <v>1</v>
@@ -23734,6 +23755,38 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A318" s="26">
+        <v>317</v>
+      </c>
+      <c r="B318" s="26">
+        <v>1</v>
+      </c>
+      <c r="C318" s="30" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D318" s="30" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G318" s="26">
+        <v>323</v>
+      </c>
+      <c r="H318" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I318" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J318" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K318" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L318" s="30" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -23748,13 +23801,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I807"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C807" sqref="C807"/>
+      <selection pane="bottomRight" activeCell="B808" sqref="B808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42381,6 +42434,29 @@
         <v>1</v>
       </c>
       <c r="G807" s="9" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A808" s="9">
+        <v>807</v>
+      </c>
+      <c r="B808" s="9">
+        <v>323</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E808" s="9">
+        <v>5</v>
+      </c>
+      <c r="F808" s="8">
+        <v>1</v>
+      </c>
+      <c r="G808" s="9" t="s">
         <v>1676</v>
       </c>
     </row>

--- a/config_9.29/permission_server_config.xlsx
+++ b/config_9.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="1767">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8089,27 +8089,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>actp_gqkl_031_aster_exchange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>五星送好礼（非C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PS渠道）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2020年10月5日23:59:59结束</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8132,6 +8111,14 @@
       </rPr>
       <t>PS渠道）</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_gqkl_031_aster_exchange</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星送好礼（非CPS渠道，非新玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12998,11 +12985,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E300" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H323" sqref="H323"/>
+      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23734,10 +23721,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -23755,7 +23742,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -23766,10 +23753,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -23787,7 +23774,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -23801,13 +23788,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C779" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C782" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B808" sqref="B808"/>
+      <selection pane="bottomRight" activeCell="E814" sqref="E814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42442,21 +42429,44 @@
         <v>807</v>
       </c>
       <c r="B808" s="9">
+        <v>322</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E808" s="8">
+        <v>5</v>
+      </c>
+      <c r="F808" s="8">
+        <v>1</v>
+      </c>
+      <c r="G808" s="10" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A809" s="9">
+        <v>808</v>
+      </c>
+      <c r="B809" s="9">
         <v>323</v>
       </c>
-      <c r="C808" s="10" t="s">
+      <c r="C809" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="D808" s="10" t="s">
+      <c r="D809" s="10" t="s">
         <v>1711</v>
       </c>
-      <c r="E808" s="9">
+      <c r="E809" s="9">
         <v>5</v>
       </c>
-      <c r="F808" s="8">
-        <v>1</v>
-      </c>
-      <c r="G808" s="9" t="s">
+      <c r="F809" s="8">
+        <v>1</v>
+      </c>
+      <c r="G809" s="9" t="s">
         <v>1676</v>
       </c>
     </row>

--- a/config_9.29/permission_server_config.xlsx
+++ b/config_9.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="1769">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8119,6 +8119,14 @@
   </si>
   <si>
     <t>五星送好礼（非CPS渠道，非新玩家）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_031_gqfd_cumulative</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋累计购买（非CPS渠道）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12983,13 +12991,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O318"/>
+  <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
+      <selection pane="bottomRight" activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23777,6 +23785,38 @@
         <v>1762</v>
       </c>
     </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A319" s="26">
+        <v>318</v>
+      </c>
+      <c r="B319" s="26">
+        <v>1</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D319" s="26" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G319" s="26">
+        <v>323</v>
+      </c>
+      <c r="H319" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I319" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K319" s="26">
+        <v>1601335800</v>
+      </c>
+      <c r="L319" s="30" t="s">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -23790,7 +23830,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I809"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C782" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
